--- a/biology/Zoologie/Cracidae/Cracidae.xlsx
+++ b/biology/Zoologie/Cracidae/Cracidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cracidae (ou cracidés en français) sont une famille d'oiseaux constituée de 11 genres et de 55 espèces existantes d'ortalides, pénélopes, oréophase et hoccos.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cracidés sont des gallinacés de taille moyenne à grande (de 42 à 92 cm), à longue queue et dont les mœurs sont à prédominance arboricole.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils vivent en Amérique du Sud et Centrale, où ils fréquentent les forêts, les bois clairs et les fourrés, du niveau de la mer jusqu'à 3 900 m d'altitude.
 </t>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Alan P. Peterson, cette famille est constituée de deux sous-familles, les Penelopinae et les Cracinae (ordre phylogénique) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, cette famille est constituée de deux sous-familles, les Penelopinae et les Cracinae (ordre phylogénique) :
 sous-famille Penelopinae
 genre Ortalis
 genre Penelope
@@ -589,7 +607,7 @@
 genre Mitu
 genre Pauxi
 genre Crax
-Pour Handbook of the Birds of the World (checklist 2014)[2], cette famille est constituée ainsi (ordre phylogénique) :
+Pour Handbook of the Birds of the World (checklist 2014), cette famille est constituée ainsi (ordre phylogénique) :
 sous-famille Penelopinae
 genre Chamaepetes
 genre Penelopina
@@ -604,9 +622,43 @@
 genre Nothocrax
 genre Crax
 genre Pauxi
-genre Mitu
-Liste alphabétiques des genres
-Aburria (f.) Reichenbach 1853 (1 espèce)
+genre Mitu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cracidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cracidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste alphabétiques des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aburria (f.) Reichenbach 1853 (1 espèce)
 Chamaepetes (m.) Wagler 1832 (2 espèces)
 Crax (f.) Linnaeus, 1758 (7 espèces)
 Mitu (n.) Lesson, 1831 (4 espèces)
@@ -616,9 +668,43 @@
 Pauxi (f.) Temminck, 1813 (3 espèces)
 Penelope (f.) Merrem 1786 (15 espèces)
 Penelopina (f.) Reichenbach, 1861 (1 espèce)
-Pipile Bonaparte, 1856 (4 espèces)
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+Pipile Bonaparte, 1856 (4 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cracidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cracidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
 Ortalis vetula – Ortalide chacamel
 Ortalis cinereiceps – Ortalide à tête grise
